--- a/data_year/zb/人口/人口普查人口基本情况.xlsx
+++ b/data_year/zb/人口/人口普查人口基本情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,233 +558,154 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.89</v>
+        <v>16.6</v>
       </c>
       <c r="C2" t="n">
-        <v>70.15000000000001</v>
+        <v>74.53</v>
       </c>
       <c r="D2" t="n">
-        <v>6.95999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>80739</v>
+        <v>67415</v>
       </c>
       <c r="F2" t="n">
-        <v>45844</v>
+        <v>66557</v>
       </c>
       <c r="G2" t="n">
-        <v>36.22</v>
+        <v>49.68</v>
       </c>
       <c r="H2" t="n">
-        <v>61228</v>
+        <v>65287</v>
       </c>
       <c r="I2" t="n">
-        <v>73.33</v>
+        <v>77.37</v>
       </c>
       <c r="J2" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>10643</v>
+        <v>11379</v>
       </c>
       <c r="L2" t="n">
-        <v>8.41</v>
+        <v>8.49</v>
       </c>
       <c r="M2" t="n">
-        <v>71.40000000000001</v>
+        <v>74.83</v>
       </c>
       <c r="N2" t="n">
-        <v>106.74</v>
+        <v>105.2</v>
       </c>
       <c r="O2" t="n">
-        <v>126583</v>
+        <v>133972</v>
       </c>
       <c r="P2" t="n">
-        <v>8507</v>
+        <v>5466</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.72049169319735</v>
+        <v>4.08</v>
       </c>
       <c r="R2" t="n">
-        <v>33961</v>
+        <v>38788</v>
       </c>
       <c r="S2" t="n">
-        <v>3611</v>
+        <v>8930</v>
       </c>
       <c r="T2" t="n">
-        <v>35701</v>
+        <v>26779</v>
       </c>
       <c r="U2" t="n">
-        <v>11146</v>
+        <v>14032</v>
       </c>
       <c r="V2" t="n">
-        <v>115940</v>
+        <v>122593</v>
       </c>
       <c r="W2" t="n">
-        <v>91.59</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>65355</v>
+        <v>68685</v>
       </c>
       <c r="Y2" t="n">
-        <v>69.63</v>
+        <v>72.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.6</v>
+        <v>17.95</v>
       </c>
       <c r="C3" t="n">
-        <v>74.53</v>
+        <v>68.55</v>
       </c>
       <c r="D3" t="n">
-        <v>8.869999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="E3" t="n">
-        <v>67415</v>
+        <v>50979</v>
       </c>
       <c r="F3" t="n">
-        <v>66557</v>
+        <v>90199</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68</v>
+        <v>63.89</v>
       </c>
       <c r="H3" t="n">
-        <v>65287</v>
-      </c>
-      <c r="I3" t="n">
-        <v>77.37</v>
-      </c>
+        <v>68844</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>11379</v>
+        <v>12547</v>
       </c>
       <c r="L3" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="M3" t="n">
-        <v>74.83</v>
-      </c>
+        <v>8.890000000000001</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>105.2</v>
+        <v>105.07</v>
       </c>
       <c r="O3" t="n">
-        <v>133972</v>
+        <v>141177.8724</v>
       </c>
       <c r="P3" t="n">
-        <v>5466</v>
+        <v>3775</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.08</v>
+        <v>2.67</v>
       </c>
       <c r="R3" t="n">
-        <v>38788</v>
+        <v>34507</v>
       </c>
       <c r="S3" t="n">
-        <v>8930</v>
+        <v>15467</v>
       </c>
       <c r="T3" t="n">
-        <v>26779</v>
+        <v>24767</v>
       </c>
       <c r="U3" t="n">
-        <v>14032</v>
+        <v>15088</v>
       </c>
       <c r="V3" t="n">
-        <v>122593</v>
+        <v>128631</v>
       </c>
       <c r="W3" t="n">
-        <v>91.51000000000001</v>
+        <v>91.11</v>
       </c>
       <c r="X3" t="n">
-        <v>68685</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>72.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="C4" t="n">
-        <v>68.55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50979</v>
-      </c>
-      <c r="F4" t="n">
-        <v>90199</v>
-      </c>
-      <c r="G4" t="n">
-        <v>63.89</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68844</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12547</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>105.07</v>
-      </c>
-      <c r="O4" t="n">
-        <v>141177.8724</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3775</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R4" t="n">
-        <v>34507</v>
-      </c>
-      <c r="S4" t="n">
-        <v>15467</v>
-      </c>
-      <c r="T4" t="n">
-        <v>24767</v>
-      </c>
-      <c r="U4" t="n">
-        <v>15088</v>
-      </c>
-      <c r="V4" t="n">
-        <v>128631</v>
-      </c>
-      <c r="W4" t="n">
-        <v>91.11</v>
-      </c>
-      <c r="X4" t="n">
         <v>72334</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
